--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1746399.924865474</v>
+        <v>1855042.086168286</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10158414.88057442</v>
+        <v>10163908.52656284</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>301.6369270003926</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13609843311933</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="X4" t="n">
-        <v>59.96787522202288</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0536609568652</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>339.8754490402165</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>98.98102224012321</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>110.63622102202</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>275.7782895103858</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>341.7062753421062</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>100.6867690249409</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.02930655048493</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.404873121236</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>140.3829797864967</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>174.7683347992597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>73.23997380652436</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>118.1266457994465</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189198</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.39152647956271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189153</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934775</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.1190787273706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182945</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C2" t="n">
-        <v>922.5193592425333</v>
+        <v>732.8060968061254</v>
       </c>
       <c r="D2" t="n">
-        <v>922.5193592425333</v>
+        <v>374.5403981993749</v>
       </c>
       <c r="E2" t="n">
-        <v>922.5193592425333</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>511.5334544529257</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>95.82870417721455</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1321.188020533234</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1768.949738926588</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C5" t="n">
-        <v>1399.987221986177</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>1041.721523379426</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>655.933270781182</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9473659915745</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>1509.687638463178</v>
       </c>
       <c r="X5" t="n">
-        <v>1768.949738926588</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="Y5" t="n">
-        <v>1768.949738926588</v>
+        <v>1136.221880202098</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>790.7764984014357</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300791</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.0005451761041</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>163.0005451761041</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>163.0005451761041</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>163.0005451761041</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478913</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>793.4311400478913</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>565.4415891498739</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>344.6490100063438</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925172</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="C8" t="n">
-        <v>1896.503151925172</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>1980.1279287449</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>934.7929217761706</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>765.8567388482637</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>615.740099435928</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>467.8270058535348</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>320.9370583556245</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>152.950593663903</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1363.870210682162</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>1074.453040645202</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X10" t="n">
-        <v>846.4634897471846</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6709106036544</v>
+        <v>1116.44138660641</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,22 +5223,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
         <v>1501.108204237296</v>
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6227,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372932</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450255</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>2817.800993781637</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781637</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>2505.71655096576</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>2357.803457383367</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2804.65264778894</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>2635.716464861033</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>2485.599825448698</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4670.716426881531</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4487.861592536436</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4268.260127559377</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3979.184900903575</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3724.500412697688</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3435.083242660728</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3207.09369176271</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>2986.30111261918</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.8410298377091</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.8410298377091</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7602,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7682,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60.35797727397573</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>199.7516311504066</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107902</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>168.7434581780649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780113</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.37549921168799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>125.5054897610393</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>47.04243616700646</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823016</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>13.30196929555964</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.46557462472416</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>888719.3422542281</v>
+        <v>894661.2697552989</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="11">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26323,31 +26325,31 @@
         <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805865</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26439,7 +26441,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
@@ -26451,13 +26453,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889982</v>
+        <v>-785396.0881889981</v>
       </c>
       <c r="C6" t="n">
-        <v>329355.6953869219</v>
+        <v>329355.6953869216</v>
       </c>
       <c r="D6" t="n">
-        <v>167557.6543886016</v>
+        <v>329355.6953869221</v>
       </c>
       <c r="E6" t="n">
-        <v>111391.5386627844</v>
+        <v>-70681.44115440629</v>
       </c>
       <c r="F6" t="n">
+        <v>436804.0004701394</v>
+      </c>
+      <c r="G6" t="n">
+        <v>436804.0004701394</v>
+      </c>
+      <c r="H6" t="n">
         <v>436804.0004701397</v>
       </c>
-      <c r="G6" t="n">
-        <v>436804.0004701392</v>
-      </c>
-      <c r="H6" t="n">
-        <v>436804.0004701396</v>
-      </c>
       <c r="I6" t="n">
-        <v>436804.0004701392</v>
+        <v>436804.0004701393</v>
       </c>
       <c r="J6" t="n">
-        <v>269198.8226601569</v>
+        <v>269198.8226601566</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701396</v>
+        <v>436804.0004701394</v>
       </c>
       <c r="L6" t="n">
-        <v>388510.0304619484</v>
+        <v>436804.0004701394</v>
       </c>
       <c r="M6" t="n">
-        <v>351748.9725346278</v>
+        <v>304196.7067412127</v>
       </c>
       <c r="N6" t="n">
         <v>436804.0004701396</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701396</v>
+        <v>436804.0004701395</v>
       </c>
       <c r="P6" t="n">
         <v>436804.0004701394</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>80.29344307186915</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>256.882454129286</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27594,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>216.8834243389493</v>
       </c>
       <c r="X4" t="n">
-        <v>165.7417801670143</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>285.4940418160888</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>9.365519677196517</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>80.85095794181409</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.78482700091125</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>78.90475211029718</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>40.22409473015563</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>46.56474013018793</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>200.1083367733431</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601522</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,13 +32569,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32791,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33262,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447133</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>689.7436082887214</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694776</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34705,7 +34707,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34790,7 +34792,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7826592700988</v>
+        <v>521.8736946105082</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>319.7101787446113</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>559.9405577709388</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579324</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648392</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>547.609574366703</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1855042.086168286</v>
+        <v>1850904.928918135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>301.6369270003926</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>160.2701921001704</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.63957399764172</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>339.8754490402165</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98102224012321</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>341.7062753421062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>275.8235713872553</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100.6867690249409</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>67.96386702300488</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.404873121236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>85.08368458989422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>118.1266457994465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>92.58181139165723</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>99.39152647956271</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>212.4076860934775</v>
+        <v>10.58364443467423</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.768613746537</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C2" t="n">
-        <v>732.8060968061254</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D2" t="n">
-        <v>374.5403981993749</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>994.554567453617</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>583.5686626640095</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4512,19 +4512,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
         <v>1463.519709552058</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1136.221880202098</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1509.687638463178</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1136.221880202098</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1136.221880202098</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014357</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1593.528088680778</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C8" t="n">
-        <v>1593.528088680778</v>
+        <v>1085.57475207624</v>
       </c>
       <c r="D8" t="n">
-        <v>1593.528088680778</v>
+        <v>727.3090534694891</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>341.5208008712448</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4874,10 +4874,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.7929217761706</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>765.8567388482637</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>615.740099435928</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>467.8270058535348</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>320.9370583556245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>152.950593663903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.23396574994</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1337.23396574994</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1116.44138660641</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>162.4670337782798</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,10 +5524,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>542.9134462654469</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2040.996070613739</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.311582407852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,19 +6551,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.71655096576</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>443.4949469776659</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>3173.601046153952</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.601046153952</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>199.7516311504066</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>168.7434581780649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.30196929556065</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780113</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>61.35027805667495</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>168.0578285897976</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>47.04243616700646</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.30196929555964</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26429,7 +26429,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26438,10 +26438,10 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
@@ -26453,13 +26453,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707399</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889981</v>
+        <v>-785396.0881889979</v>
       </c>
       <c r="C6" t="n">
-        <v>329355.6953869216</v>
+        <v>329355.695386922</v>
       </c>
       <c r="D6" t="n">
-        <v>329355.6953869221</v>
+        <v>329355.6953869218</v>
       </c>
       <c r="E6" t="n">
-        <v>-70681.44115440629</v>
+        <v>-71028.82040876364</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157823</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157827</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701397</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701393</v>
+        <v>436456.6212157828</v>
       </c>
       <c r="J6" t="n">
-        <v>269198.8226601566</v>
+        <v>268851.4434058003</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157823</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157825</v>
       </c>
       <c r="M6" t="n">
-        <v>304196.7067412127</v>
+        <v>303849.3274868557</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701396</v>
+        <v>436456.6212157828</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701395</v>
+        <v>436456.6212157822</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157824</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>80.29344307186915</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>251.2775106727836</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>216.8834243389493</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>9.365519677196517</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.85095794181409</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.22409473015563</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>131.0524743544561</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>46.56474013018793</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435948</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>689.7436082887214</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34707,7 +34707,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>521.8736946105082</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>497.4319917882568</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,7 +35263,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>559.9405577709388</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991504</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>547.609574366703</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1850904.928918135</v>
+        <v>1852665.459220921</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>160.2701921001704</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>57.74751945339558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172153</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>301.6369270003922</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>196.699784115679</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>178.7960897571494</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.8235713872553</v>
+        <v>68.07819084440227</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>17.42775815369493</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>67.96386702300488</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>152.8291121019625</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>146.1850499531015</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>113.541358075969</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3542165280277</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>105.11626575513</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E2" t="n">
-        <v>994.554567453617</v>
+        <v>532.2278653236203</v>
       </c>
       <c r="F2" t="n">
-        <v>583.5686626640095</v>
+        <v>121.2419605340128</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>109.5776142987057</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>109.5776142987057</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4479,34 +4479,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>732.806096806125</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>374.5403981993745</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4603,16 +4603,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.57475207624</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>727.3090534694891</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="E8" t="n">
-        <v>341.5208008712448</v>
+        <v>906.1501793480356</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080773</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1618.842323959654</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>766.1780053015053</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>618.2649117191122</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>471.3749642212018</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>304.1788649360818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>162.4670337782798</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,16 +5652,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,37 +5673,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.400878868273</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.30196929556065</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>65.7555412501323</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>37.12601365260463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>71.22040037418677</v>
+        <v>45.04089287986218</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.89260457060016</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907537</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,34 +26426,34 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707399</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889979</v>
+        <v>-785396.0881889976</v>
       </c>
       <c r="C6" t="n">
-        <v>329355.695386922</v>
+        <v>329355.6953869218</v>
       </c>
       <c r="D6" t="n">
-        <v>329355.6953869218</v>
+        <v>329355.6953869216</v>
       </c>
       <c r="E6" t="n">
-        <v>-71028.82040876364</v>
+        <v>-70716.17907984201</v>
       </c>
       <c r="F6" t="n">
-        <v>436456.6212157823</v>
+        <v>436769.262544704</v>
       </c>
       <c r="G6" t="n">
-        <v>436456.6212157827</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="H6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="I6" t="n">
-        <v>436456.6212157828</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="J6" t="n">
-        <v>268851.4434058003</v>
+        <v>269164.0847347214</v>
       </c>
       <c r="K6" t="n">
-        <v>436456.6212157823</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="L6" t="n">
-        <v>436456.6212157825</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="M6" t="n">
-        <v>303849.3274868557</v>
+        <v>304161.9688157768</v>
       </c>
       <c r="N6" t="n">
-        <v>436456.6212157828</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="O6" t="n">
-        <v>436456.6212157822</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="P6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447034</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>251.2775106727836</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.962393219074919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193757</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>80.2934430718696</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27675,13 +27675,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>173.03131656279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,16 +27830,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>46.91356563188774</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.0524743544561</v>
+        <v>338.7978548973092</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>268.7993959675057</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>528.7520287839581</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902408</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
